--- a/ProcessedData/SCICONF CAandL (R1).xlsx
+++ b/ProcessedData/SCICONF CAandL (R1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\RG Citation Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\My Documents\RG Citations\rgciting\ProcessedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9FB8EE20-CF9D-42EF-8228-3903DBD1E71B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFFE8B8-886E-4BB3-B144-B70B85912FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -84,9 +84,6 @@
     <t>A014</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>A015</t>
   </si>
   <si>
@@ -192,49 +189,160 @@
     <t>A045</t>
   </si>
   <si>
+    <t>A046</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>A048</t>
+  </si>
+  <si>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>A052</t>
+  </si>
+  <si>
+    <t>A053</t>
+  </si>
+  <si>
+    <t>A054</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>A057</t>
+  </si>
+  <si>
+    <t>A058</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>A061</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>A066</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>A070</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>A060</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>A073</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>A078</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>A081</t>
+  </si>
+  <si>
+    <t>A082</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>A046</t>
-  </si>
-  <si>
-    <t>A047</t>
-  </si>
-  <si>
-    <t>A048</t>
-  </si>
-  <si>
-    <t>A049</t>
-  </si>
-  <si>
-    <t>A050</t>
-  </si>
-  <si>
-    <t>A051</t>
-  </si>
-  <si>
-    <t>A052</t>
-  </si>
-  <si>
-    <t>A053</t>
-  </si>
-  <si>
-    <t>A054</t>
-  </si>
-  <si>
-    <t>A055</t>
-  </si>
-  <si>
-    <t>A056</t>
-  </si>
-  <si>
-    <t>A057</t>
-  </si>
-  <si>
-    <t>A058</t>
-  </si>
-  <si>
-    <t>A059</t>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>A088</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>A091</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>A095</t>
   </si>
 </sst>
 </file>
@@ -597,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,18 +1051,18 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,29 +1073,29 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,18 +1183,18 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1097,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,74 +1216,74 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1186,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1197,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1219,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1230,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1241,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1252,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,18 +1371,18 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1285,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,7 +1426,776 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessedData/SCICONF CAandL (R1).xlsx
+++ b/ProcessedData/SCICONF CAandL (R1).xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\My Documents\RG Citations\rgciting\ProcessedData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFFE8B8-886E-4BB3-B144-B70B85912FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="194">
   <si>
     <t>Title</t>
   </si>
@@ -33,33 +19,33 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>A001</t>
+  </si>
+  <si>
     <t>URL;Title</t>
   </si>
   <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
     <t>Title/Loc</t>
   </si>
   <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
     <t>A007</t>
   </si>
   <si>
@@ -132,12 +118,12 @@
     <t>A029</t>
   </si>
   <si>
+    <t>DOI;Title</t>
+  </si>
+  <si>
     <t>A030</t>
   </si>
   <si>
-    <t>DOI;Title</t>
-  </si>
-  <si>
     <t>A031</t>
   </si>
   <si>
@@ -189,6 +175,9 @@
     <t>A045</t>
   </si>
   <si>
+    <t>Original</t>
+  </si>
+  <si>
     <t>A046</t>
   </si>
   <si>
@@ -231,6 +220,9 @@
     <t>A059</t>
   </si>
   <si>
+    <t>A060</t>
+  </si>
+  <si>
     <t>A061</t>
   </si>
   <si>
@@ -267,12 +259,6 @@
     <t>A072</t>
   </si>
   <si>
-    <t>A060</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>A073</t>
   </si>
   <si>
@@ -309,33 +295,33 @@
     <t>None</t>
   </si>
   <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>A088</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>A091</t>
+  </si>
+  <si>
     <t>A092</t>
   </si>
   <si>
-    <t>A084</t>
-  </si>
-  <si>
-    <t>A085</t>
-  </si>
-  <si>
-    <t>A086</t>
-  </si>
-  <si>
-    <t>A087</t>
-  </si>
-  <si>
-    <t>A088</t>
-  </si>
-  <si>
-    <t>A089</t>
-  </si>
-  <si>
-    <t>A090</t>
-  </si>
-  <si>
-    <t>A091</t>
-  </si>
-  <si>
     <t>A093</t>
   </si>
   <si>
@@ -343,27 +329,290 @@
   </si>
   <si>
     <t>A095</t>
+  </si>
+  <si>
+    <t>A096</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A097</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>A099</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>A112</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>A116</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>A118</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>A124</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>A128</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>A132</t>
+  </si>
+  <si>
+    <t>A133</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>A135</t>
+  </si>
+  <si>
+    <t>A136</t>
+  </si>
+  <si>
+    <t>A137</t>
+  </si>
+  <si>
+    <t>A138</t>
+  </si>
+  <si>
+    <t>A139</t>
+  </si>
+  <si>
+    <t>A140</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>A142</t>
+  </si>
+  <si>
+    <t>A143</t>
+  </si>
+  <si>
+    <t>A144</t>
+  </si>
+  <si>
+    <t>Title/loc</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>A146</t>
+  </si>
+  <si>
+    <t>A147</t>
+  </si>
+  <si>
+    <t>A148</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>A150</t>
+  </si>
+  <si>
+    <t>A151</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>A153</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>A155</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>A157</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>A161</t>
+  </si>
+  <si>
+    <t>A162</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>Article;URL</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>A166</t>
+  </si>
+  <si>
+    <t>A167</t>
+  </si>
+  <si>
+    <t>A168</t>
+  </si>
+  <si>
+    <t>A169</t>
+  </si>
+  <si>
+    <t>A170</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>A172</t>
+  </si>
+  <si>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>A176</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>A178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,349 +620,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,67 +673,67 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -790,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -801,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -812,7 +764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -823,9 +775,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -834,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -845,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -856,9 +808,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -867,9 +819,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -878,9 +830,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -889,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -900,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -911,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -922,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -933,7 +885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -944,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -955,9 +907,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -966,7 +918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -977,9 +929,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -988,9 +940,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -999,7 +951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1010,9 +962,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1021,20 +973,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1043,9 +995,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1054,20 +1006,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1076,9 +1028,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1087,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1098,7 +1050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1131,9 +1083,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -1142,7 +1094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1153,9 +1105,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -1164,7 +1116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1127,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1186,9 +1138,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1197,7 +1149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1230,63 +1182,63 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1294,21 +1246,21 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1316,21 +1268,21 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1338,21 +1290,21 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1360,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1371,21 +1323,21 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1393,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1404,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1415,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1426,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -1437,32 +1389,32 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1470,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1481,21 +1433,21 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1503,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1514,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1525,10 +1477,10 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1536,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1547,54 +1499,54 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1602,32 +1554,32 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>81</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1649,9 +1601,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -1660,9 +1612,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -1671,9 +1623,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -1682,7 +1634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1693,9 +1645,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -1704,9 +1656,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -1715,9 +1667,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -1726,9 +1678,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -1737,9 +1689,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -1748,7 +1700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -1759,9 +1711,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -1770,7 +1722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -1781,9 +1733,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -1792,7 +1744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -1803,9 +1755,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -1814,9 +1766,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -1825,7 +1777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -1858,183 +1810,183 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C113" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C116" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C118" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C119" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C122" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C123" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C128" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -2042,31 +1994,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C132" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -2074,98 +2026,98 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -2176,9 +2128,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -2187,7 +2139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -2198,10 +2150,2560 @@
         <v>105</v>
       </c>
     </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D145" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="A178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="A181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="A187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="A200" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="A206" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="A208" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="A209" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="A210" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="A211" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="A212" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="A213" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="A214" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="B216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="B217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="B218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="B219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="B221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" customHeight="1">
+      <c r="B222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" customHeight="1">
+      <c r="B223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" customHeight="1">
+      <c r="B224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" customHeight="1">
+      <c r="B225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" customHeight="1">
+      <c r="B226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25" customHeight="1">
+      <c r="B227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25" customHeight="1">
+      <c r="B228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25" customHeight="1">
+      <c r="B229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" customHeight="1">
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" customHeight="1">
+      <c r="B231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" customHeight="1">
+      <c r="B232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" customHeight="1">
+      <c r="B233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" customHeight="1">
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" customHeight="1">
+      <c r="B235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" customHeight="1">
+      <c r="B236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" customHeight="1">
+      <c r="B237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" customHeight="1">
+      <c r="B238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" customHeight="1">
+      <c r="B239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" customHeight="1">
+      <c r="B240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" customHeight="1">
+      <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25" customHeight="1">
+      <c r="B242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25" customHeight="1">
+      <c r="B243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25" customHeight="1">
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25" customHeight="1">
+      <c r="B245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25" customHeight="1">
+      <c r="B246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25" customHeight="1">
+      <c r="B247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25" customHeight="1">
+      <c r="B248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="B249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25" customHeight="1">
+      <c r="B250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25" customHeight="1">
+      <c r="B251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25" customHeight="1">
+      <c r="B252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25" customHeight="1">
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25" customHeight="1">
+      <c r="B254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25" customHeight="1">
+      <c r="B255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25" customHeight="1">
+      <c r="B256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25" customHeight="1">
+      <c r="B257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25" customHeight="1">
+      <c r="B258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25" customHeight="1">
+      <c r="B259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25" customHeight="1">
+      <c r="B260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25" customHeight="1">
+      <c r="B261" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25" customHeight="1">
+      <c r="B262" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25" customHeight="1">
+      <c r="B263" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25" customHeight="1">
+      <c r="B264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25" customHeight="1">
+      <c r="B265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25" customHeight="1">
+      <c r="B266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25" customHeight="1">
+      <c r="B267" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25" customHeight="1">
+      <c r="B268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25" customHeight="1">
+      <c r="B269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25" customHeight="1">
+      <c r="B270" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25" customHeight="1">
+      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25" customHeight="1">
+      <c r="B272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25" customHeight="1">
+      <c r="A273" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25" customHeight="1">
+      <c r="A274" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25" customHeight="1">
+      <c r="A275" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25" customHeight="1">
+      <c r="A276" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="A277" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25" customHeight="1">
+      <c r="A278" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25" customHeight="1">
+      <c r="A279" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25" customHeight="1">
+      <c r="A280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25" customHeight="1">
+      <c r="A281" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25" customHeight="1">
+      <c r="A282" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25" customHeight="1">
+      <c r="A283" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25" customHeight="1">
+      <c r="A284" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25" customHeight="1">
+      <c r="A285" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25" customHeight="1">
+      <c r="A286" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25" customHeight="1">
+      <c r="A287" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25" customHeight="1">
+      <c r="A288" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25" customHeight="1">
+      <c r="A289" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25" customHeight="1">
+      <c r="A290" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25" customHeight="1">
+      <c r="A291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="A292" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25" customHeight="1">
+      <c r="A293" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="A294" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25" customHeight="1">
+      <c r="A295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25" customHeight="1">
+      <c r="A296" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25" customHeight="1">
+      <c r="A297" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="A298" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25" customHeight="1">
+      <c r="A299" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25" customHeight="1">
+      <c r="A300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25" customHeight="1">
+      <c r="A301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25" customHeight="1">
+      <c r="A302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25" customHeight="1">
+      <c r="A303" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25" customHeight="1">
+      <c r="A304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25" customHeight="1">
+      <c r="A305" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25" customHeight="1">
+      <c r="A306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25" customHeight="1">
+      <c r="A307" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25" customHeight="1">
+      <c r="A308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25" customHeight="1">
+      <c r="A309" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25" customHeight="1">
+      <c r="A310" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25" customHeight="1">
+      <c r="A311" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25" customHeight="1">
+      <c r="A312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25" customHeight="1">
+      <c r="A313" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25" customHeight="1">
+      <c r="A314" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25" customHeight="1">
+      <c r="A315" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25" customHeight="1">
+      <c r="A316" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25" customHeight="1">
+      <c r="A317" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25" customHeight="1">
+      <c r="A318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25" customHeight="1">
+      <c r="A319" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25" customHeight="1">
+      <c r="A320" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25" customHeight="1">
+      <c r="A321" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25" customHeight="1">
+      <c r="A322" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25" customHeight="1">
+      <c r="A323" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25" customHeight="1">
+      <c r="A324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25" customHeight="1">
+      <c r="A325" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25" customHeight="1">
+      <c r="A326" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25" customHeight="1">
+      <c r="A327" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25" customHeight="1">
+      <c r="A328" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25" customHeight="1">
+      <c r="A329" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25" customHeight="1">
+      <c r="A330" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="URL:Title" xr:uid="{4FF32989-F299-4CCB-ACBD-F08125FDB2C9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>